--- a/Docs/Tider/Tidsdiagram.xlsx
+++ b/Docs/Tider/Tidsdiagram.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16200" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16320" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -146,6 +146,26 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Data!$B$7:$B$14</c:f>
@@ -215,6 +235,26 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Data!$B$7:$B$14</c:f>
@@ -284,6 +324,26 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Data!$B$7:$B$14</c:f>
@@ -359,6 +419,26 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Data!$B$7:$B$14</c:f>
@@ -431,6 +511,26 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Data!$B$7:$B$14</c:f>
@@ -500,6 +600,26 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Data!$B$7:$B$14</c:f>
@@ -555,8 +675,9 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -564,11 +685,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2084333976"/>
-        <c:axId val="2084229448"/>
+        <c:axId val="2077452008"/>
+        <c:axId val="2077455144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2084333976"/>
+        <c:axId val="2077452008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -577,7 +698,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2084229448"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2077455144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -585,29 +716,39 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2084229448"/>
+        <c:axId val="2077455144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2084333976"/>
+        <c:crossAx val="2077452008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
@@ -654,6 +795,26 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Data!$C$6:$H$6</c:f>
@@ -723,6 +884,25 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Data!$C$6:$H$6</c:f>
@@ -783,6 +963,25 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Data!$C$6:$H$6</c:f>
@@ -852,6 +1051,25 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Data!$C$6:$H$6</c:f>
@@ -912,6 +1130,25 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Data!$C$6:$H$6</c:f>
@@ -969,6 +1206,25 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Data!$C$6:$H$6</c:f>
@@ -1026,6 +1282,25 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Data!$C$6:$H$6</c:f>
@@ -1083,6 +1358,25 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Data!$C$6:$H$6</c:f>
@@ -1130,7 +1424,7 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1138,11 +1432,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2119532952"/>
-        <c:axId val="2117936456"/>
+        <c:axId val="2028773816"/>
+        <c:axId val="2028776792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2119532952"/>
+        <c:axId val="2028773816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1151,7 +1445,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117936456"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2028776792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1159,29 +1463,39 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2117936456"/>
+        <c:axId val="2028776792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119532952"/>
+        <c:crossAx val="2028773816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
@@ -1196,16 +1510,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>317500</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1231,16 +1545,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1589,7 +1903,7 @@
   <dimension ref="B5:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1788,8 +2102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1808,8 +2122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Docs/Tider/Tidsdiagram.xlsx
+++ b/Docs/Tider/Tidsdiagram.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16320" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1940" yWindow="160" windowWidth="25600" windowHeight="15800" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -208,13 +208,13 @@
                   <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.75</c:v>
+                  <c:v>33.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.5</c:v>
+                  <c:v>18.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -297,13 +297,13 @@
                   <c:v>9.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.75</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.5</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -385,17 +385,20 @@
                 <c:pt idx="0">
                   <c:v>11.5</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.75</c:v>
+                </c:pt>
                 <c:pt idx="2">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.25</c:v>
+                  <c:v>14.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>15.25</c:v>
@@ -478,19 +481,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>9.5</c:v>
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.0</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.0</c:v>
+                </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.25</c:v>
+                  <c:v>5.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.5</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -573,10 +582,13 @@
                   <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.58</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>23.0</c:v>
@@ -659,16 +671,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>10.5</c:v>
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -685,11 +703,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2077452008"/>
-        <c:axId val="2077455144"/>
+        <c:axId val="1845775112"/>
+        <c:axId val="1844226712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2077452008"/>
+        <c:axId val="1845775112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -708,7 +726,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2077455144"/>
+        <c:crossAx val="1844226712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -716,7 +734,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2077455144"/>
+        <c:axId val="1844226712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -727,7 +745,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2077452008"/>
+        <c:crossAx val="1845775112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -857,13 +875,13 @@
                   <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.5</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.5</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -936,13 +954,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.75</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.75</c:v>
+                  <c:v>33.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5</c:v>
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1103,13 +1130,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.25</c:v>
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1185,7 +1221,7 @@
                   <c:v>5.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.25</c:v>
+                  <c:v>5.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1334,7 +1370,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3.5</c:v>
@@ -1413,10 +1449,10 @@
                   <c:v>15.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.5</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1432,11 +1468,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2028773816"/>
-        <c:axId val="2028776792"/>
+        <c:axId val="1846251896"/>
+        <c:axId val="1846255144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2028773816"/>
+        <c:axId val="1846251896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1455,7 +1491,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2028776792"/>
+        <c:crossAx val="1846255144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1463,7 +1499,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2028776792"/>
+        <c:axId val="1846255144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1474,7 +1510,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2028773816"/>
+        <c:crossAx val="1846251896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1511,15 +1547,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
+      <xdr:colOff>177800</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1902,8 +1938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1953,13 +1989,13 @@
         <v>11.5</v>
       </c>
       <c r="F7" s="1">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="G7" s="1">
         <v>11.5</v>
       </c>
       <c r="H7" s="1">
-        <v>10.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:8">
@@ -1967,17 +2003,23 @@
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>5.75</v>
+        <v>33.25</v>
       </c>
       <c r="D8" s="1">
-        <v>1.75</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+        <v>15.5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>17.75</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5.5</v>
+      </c>
       <c r="G8" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="H8" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="H8" s="1">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" t="s">
@@ -2007,17 +2049,23 @@
         <v>3</v>
       </c>
       <c r="C10" s="1">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="D10" s="1">
-        <v>23.5</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1">
-        <v>4.25</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+        <v>14.25</v>
+      </c>
+      <c r="F10" s="1">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1.58</v>
+      </c>
+      <c r="H10" s="1">
+        <v>22.5</v>
+      </c>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" t="s">
@@ -2029,7 +2077,7 @@
         <v>5.25</v>
       </c>
       <c r="F11" s="1">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -2056,7 +2104,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="F13" s="1">
         <v>3.5</v>
@@ -2074,11 +2122,11 @@
         <v>15.25</v>
       </c>
       <c r="F14" s="1">
-        <v>22.5</v>
+        <v>27</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1">
-        <v>3</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="19" spans="4:8">
@@ -2102,7 +2150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
@@ -2122,7 +2170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
